--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193821.3346318369</v>
+        <v>-196368.4295663139</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>146.2725055802096</v>
+        <v>294.7978409378867</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>353.8185646385244</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.2511401239517</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>91.6052009444586</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>188.0162570430084</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,7 +947,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>60.95644728760438</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,7 +1069,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>60.63815656421176</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>140.7746547051092</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>142.9711221467179</v>
+        <v>208.3333255363106</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>145.6215755569547</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>37.94510558336318</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>121.8000472740342</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,19 +1582,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>278.7019488598313</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.8107367464748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174.1182300831</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>32.27552175740544</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>66.436940606691</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.2052365248857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>11.81332727248923</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>163.1485391341856</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>40.32853379926716</v>
       </c>
       <c r="D28" t="n">
-        <v>122.6028762599951</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>118.4651697467932</v>
       </c>
       <c r="T31" t="n">
-        <v>105.1820732698676</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>161.9918985650756</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>42.20606459030861</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>861.3216348137587</v>
+        <v>1819.431341154229</v>
       </c>
       <c r="C2" t="n">
-        <v>861.3216348137587</v>
+        <v>1450.468824213817</v>
       </c>
       <c r="D2" t="n">
-        <v>503.0559362070082</v>
+        <v>1092.203125607067</v>
       </c>
       <c r="E2" t="n">
-        <v>503.0559362070082</v>
+        <v>706.4148730088225</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>408.6392761018662</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4334,7 +4334,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4361,19 +4361,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137587</v>
+        <v>1819.431341154229</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919906</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1399.720504392483</v>
+        <v>624.0678491612455</v>
       </c>
       <c r="C4" t="n">
-        <v>1399.720504392483</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="D4" t="n">
-        <v>1399.720504392483</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.720504392483</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392483</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1543.915614069993</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075599</v>
+        <v>1543.915614069993</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.127174075599</v>
+        <v>1543.915614069993</v>
       </c>
       <c r="U4" t="n">
-        <v>1974.008836579437</v>
+        <v>1543.915614069993</v>
       </c>
       <c r="V4" t="n">
-        <v>1974.008836579437</v>
+        <v>1543.915614069993</v>
       </c>
       <c r="W4" t="n">
-        <v>1974.008836579437</v>
+        <v>1254.498444033033</v>
       </c>
       <c r="X4" t="n">
-        <v>1746.019285681419</v>
+        <v>1026.508893135015</v>
       </c>
       <c r="Y4" t="n">
-        <v>1525.226706537889</v>
+        <v>805.7163139914852</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1134.226501951987</v>
+        <v>1671.539306344595</v>
       </c>
       <c r="C5" t="n">
-        <v>1134.226501951987</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D5" t="n">
-        <v>1134.226501951987</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E5" t="n">
-        <v>1134.226501951987</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>723.2405971623798</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>307.5358468866687</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>2106.577233583053</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188879</v>
+        <v>2106.577233583053</v>
       </c>
       <c r="X5" t="n">
-        <v>1524.365833927799</v>
+        <v>1733.111475321974</v>
       </c>
       <c r="Y5" t="n">
-        <v>1134.226501951987</v>
+        <v>1671.539306344595</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495376</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
         <v>2214.708848710445</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.8214259065182</v>
+        <v>834.938065318854</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786114</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="D7" t="n">
         <v>515.8852429786114</v>
@@ -4717,13 +4717,13 @@
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1575.195456878324</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1378.566709038185</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1155.58822823292</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>866.469890736758</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V7" t="n">
-        <v>866.469890736758</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="W7" t="n">
-        <v>866.469890736758</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="X7" t="n">
-        <v>866.469890736758</v>
+        <v>1016.586530149094</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.469890736758</v>
+        <v>1016.586530149094</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416653</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C8" t="n">
-        <v>1049.698447476241</v>
+        <v>1385.781921542235</v>
       </c>
       <c r="D8" t="n">
-        <v>1049.698447476241</v>
+        <v>1027.516222935485</v>
       </c>
       <c r="E8" t="n">
-        <v>663.9101948779969</v>
+        <v>1027.516222935485</v>
       </c>
       <c r="F8" t="n">
-        <v>252.9242900883893</v>
+        <v>616.5303181458773</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416653</v>
+        <v>2141.344278546769</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>441.479525463516</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C10" t="n">
-        <v>272.5433425356091</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D10" t="n">
-        <v>272.5433425356091</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.910120335303</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>843.9205694372858</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y10" t="n">
-        <v>623.1279902937557</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5042,31 +5042,31 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>363.736961327735</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>983.3556038098255</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>814.4194208819187</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>664.3027814695829</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>2157.88785692446</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1903.203368718573</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648818</v>
+        <v>1613.786198681613</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750801</v>
+        <v>1385.796647783595</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072707</v>
+        <v>1165.004068640065</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.677130397315</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1683.259960360355</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.270409462337</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2435.030429769666</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2252.17559542457</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2032.574130447511</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1743.498903791709</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1488.814415585822</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1199.397245548862</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.904861472874</v>
+        <v>971.4076946508441</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>810.0653816078141</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799072</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2260.255592209639</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.672861378251</v>
+        <v>2040.654127232581</v>
       </c>
       <c r="U31" t="n">
-        <v>1984.597634722449</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.913146516562</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W31" t="n">
-        <v>1440.495976479601</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X31" t="n">
-        <v>1212.506425581584</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y31" t="n">
-        <v>991.7138464380538</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7166,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>450.5350983060615</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>303.6451508081511</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>136.4490515230311</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2273.199413378161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2273.199413378161</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7822,16 +7822,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013349</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>128.3425335498523</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>57.72913813442954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>24.63391537253493</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>7.48252552941284</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922698</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856401</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.713750098837323</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>114.1584408891637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>220.0860577299</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>45.37941682720913</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.56191943763243</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>62.56111625485153</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>126.9182872993607</v>
       </c>
       <c r="D28" t="n">
-        <v>26.01259675821728</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>62.5611162548514</v>
       </c>
       <c r="T31" t="n">
-        <v>112.2233770574207</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>98.08864825591527</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>75.37549921168767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028985</v>
+        <v>274720.9666028986</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="F2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="F2" t="n">
-        <v>302679.9748837521</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
         <v>302679.9748837521</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86240.4843345429</v>
+        <v>86240.48433454282</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
@@ -26433,28 +26433,28 @@
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756575</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756613</v>
-      </c>
       <c r="N4" t="n">
-        <v>9337.20035675661</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>17328.05961985006</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1019209.073747409</v>
+        <v>-1019430.205061383</v>
       </c>
       <c r="C6" t="n">
-        <v>78226.61756715915</v>
+        <v>78226.61756715905</v>
       </c>
       <c r="D6" t="n">
-        <v>-81194.65243073295</v>
+        <v>-81194.65243073307</v>
       </c>
       <c r="E6" t="n">
-        <v>-133192.2171042665</v>
+        <v>-133226.9550297026</v>
       </c>
       <c r="F6" t="n">
-        <v>192220.2447030884</v>
+        <v>192185.5067776528</v>
       </c>
       <c r="G6" t="n">
-        <v>192220.2447030885</v>
+        <v>192185.5067776528</v>
       </c>
       <c r="H6" t="n">
-        <v>192220.2447030882</v>
+        <v>192185.5067776528</v>
       </c>
       <c r="I6" t="n">
-        <v>192220.2447030885</v>
+        <v>192185.5067776528</v>
       </c>
       <c r="J6" t="n">
-        <v>24615.06689310596</v>
+        <v>24580.32896767046</v>
       </c>
       <c r="K6" t="n">
-        <v>192220.2447030885</v>
+        <v>192185.5067776529</v>
       </c>
       <c r="L6" t="n">
-        <v>143926.2746948976</v>
+        <v>143891.5367694622</v>
       </c>
       <c r="M6" t="n">
-        <v>107165.2167675767</v>
+        <v>107130.4788421409</v>
       </c>
       <c r="N6" t="n">
-        <v>192220.2447030885</v>
+        <v>192185.5067776529</v>
       </c>
       <c r="O6" t="n">
-        <v>192220.2447030885</v>
+        <v>192185.5067776528</v>
       </c>
       <c r="P6" t="n">
-        <v>167970.7702317087</v>
+        <v>167970.7702317088</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>132.2610066116495</v>
+        <v>112.0782048038247</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.58084005798564</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>9.952371475115029</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>113.002295519397</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>325.2814913684492</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>40.91941585536188</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>84.93500068392794</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>267.9506035067355</v>
+        <v>202.5884001171429</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>34.21040462498257</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>108.488857063206</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>518.4394551593577</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302374</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>543.0832917018706</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33740,25 +33740,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321895</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>418.4229873015965</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579301</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066263</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.261899706047</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
